--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khai/Documents/GitHub/LaTiPee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98539BC-467C-4237-8B50-BE4812E39361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B981F-E826-8041-A765-A0946AF07528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Chốt các deadline: demo front , tìm hiểu ngôn ngữ liên quan , bắt đầu code</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -647,20 +653,20 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.21875" customWidth="1"/>
-    <col min="11" max="11" width="108.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" customWidth="1"/>
+    <col min="11" max="11" width="108.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -683,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -698,7 +704,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -742,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -782,7 +788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -808,7 +814,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -842,7 +848,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -864,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -886,7 +892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -908,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -930,7 +936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -952,7 +958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -974,7 +980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I24" s="1">
         <v>13</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>14</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>15</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>16</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <v>17</v>
       </c>
@@ -1194,86 +1200,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="B4:C12"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khai/Documents/GitHub/LaTiPee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B981F-E826-8041-A765-A0946AF07528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB12F-648A-4035-9188-F5FD0EFB3849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>27/6/2023</t>
   </si>
 </sst>
 </file>
@@ -649,24 +652,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B79ED3-F188-4A3F-966C-16E71EAE154B}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.1640625" customWidth="1"/>
-    <col min="11" max="11" width="108.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
+    <col min="11" max="11" width="108.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -689,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -704,7 +707,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -727,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -759,17 +762,17 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -788,7 +791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -801,7 +804,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -832,7 +835,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -870,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -892,7 +895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -914,7 +917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -936,7 +939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -958,7 +961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -980,7 +983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="1">
         <v>13</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
         <v>14</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <v>15</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <v>16</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
         <v>17</v>
       </c>
@@ -1202,25 +1205,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="63.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1240,12 +1243,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1272,7 +1275,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB12F-648A-4035-9188-F5FD0EFB3849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4AEA0-B544-45BB-8C12-A688A26E205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>27/6/2023</t>
+  </si>
+  <si>
+    <t>Nguyên hỏi Tiến với Tâm về tiến độ công việc của phần giao diện.</t>
+  </si>
+  <si>
+    <t>Tiến gần hoàn thành "đơn hàng gần đây" và Tiến dự định sẽ hoàn thành đến thứ 4</t>
   </si>
 </sst>
 </file>
@@ -320,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -336,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B79ED3-F188-4A3F-966C-16E71EAE154B}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1203,15 +1210,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
@@ -1293,9 +1300,79 @@
       </c>
       <c r="C9" s="1"/>
     </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7">
+        <v>44964</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4AEA0-B544-45BB-8C12-A688A26E205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C81354-95EC-4E30-BFCF-5B91D63D55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -84,9 +84,6 @@
     <t>25/6/2023</t>
   </si>
   <si>
-    <t>Tâm &amp; Tiến</t>
-  </si>
-  <si>
     <t>12/7/2023</t>
   </si>
   <si>
@@ -240,12 +237,6 @@
     <t>Tiến muốn đổi đề tài do độ khó của project</t>
   </si>
   <si>
-    <t>Khải tìm được tài liệu cốt lõi nên vẫn tiếp tục project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thảo luận về ngôn ngữ sẽ sử dụng trong project </t>
-  </si>
-  <si>
     <t>Chốt các deadline: demo front , tìm hiểu ngôn ngữ liên quan , bắt đầu code</t>
   </si>
   <si>
@@ -262,6 +253,24 @@
   </si>
   <si>
     <t>Tiến gần hoàn thành "đơn hàng gần đây" và Tiến dự định sẽ hoàn thành đến thứ 4</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>Tâm đã hoàn thành form shipper, chi tiết sản phẩm và tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Thảo luận về ngôn ngữ sẽ sử dụng trong project (HTML, CSS, JS, NodeJS, SQL)</t>
+  </si>
+  <si>
+    <t>Khải tìm được tài liệu liên quan nên vẫn tiếp tục project</t>
+  </si>
+  <si>
+    <t>Tâm &amp; Tiến &amp; Khải</t>
+  </si>
+  <si>
+    <t>Khải nói đã làm xong form Đăng nhập, đăng kí và đang làm quên mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -342,7 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,25 +668,24 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
-    <col min="11" max="11" width="108.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="108.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -699,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -714,7 +721,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -728,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -737,28 +744,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -766,20 +773,20 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -787,23 +794,23 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -811,12 +818,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -824,12 +831,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -837,17 +844,17 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -858,12 +865,12 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -871,21 +878,21 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -896,18 +903,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -918,18 +925,18 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -940,18 +947,18 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -962,18 +969,18 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -984,18 +991,18 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1006,18 +1013,18 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1028,18 +1035,18 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1050,18 +1057,18 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1072,18 +1079,18 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1094,18 +1101,18 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1116,18 +1123,18 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1138,65 +1145,65 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I24" s="1">
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1">
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" s="1">
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1210,169 +1217,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7">
-        <v>44964</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C81354-95EC-4E30-BFCF-5B91D63D55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312EC35-D7D6-449B-9472-D8C734728C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -84,12 +84,6 @@
     <t>25/6/2023</t>
   </si>
   <si>
-    <t>12/7/2023</t>
-  </si>
-  <si>
-    <t>24/6/2023</t>
-  </si>
-  <si>
     <t>Nguyên &amp; Tâm &amp; Khải</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>Kiểm duyệt sản phẩm</t>
   </si>
   <si>
-    <t>13/7/2023</t>
-  </si>
-  <si>
-    <t>Nguyên &amp; Khải</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>Cho phép NSD tạo lại mật khẩu mới khi NSD đã quên mật khẩu cũ</t>
   </si>
   <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
     <t>Cho phép NSD lọc các sản phẩm nào sẽ được hiển thị trên trang tìm kiếm</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>Kiểm duyệt nội dung sản phẩm trước khi đăng lên</t>
   </si>
   <si>
-    <t>todo</t>
-  </si>
-  <si>
     <t>Phân quyền hoạt động của các loại tài khoản (admin, users, shop, shop mall, shipper)</t>
   </si>
   <si>
@@ -246,9 +228,6 @@
     <t>Online</t>
   </si>
   <si>
-    <t>27/6/2023</t>
-  </si>
-  <si>
     <t>Nguyên hỏi Tiến với Tâm về tiến độ công việc của phần giao diện.</t>
   </si>
   <si>
@@ -261,9 +240,6 @@
     <t>Tâm đã hoàn thành form shipper, chi tiết sản phẩm và tìm kiếm sản phẩm</t>
   </si>
   <si>
-    <t>Thảo luận về ngôn ngữ sẽ sử dụng trong project (HTML, CSS, JS, NodeJS, SQL)</t>
-  </si>
-  <si>
     <t>Khải tìm được tài liệu liên quan nên vẫn tiếp tục project</t>
   </si>
   <si>
@@ -271,6 +247,60 @@
   </si>
   <si>
     <t>Khải nói đã làm xong form Đăng nhập, đăng kí và đang làm quên mật khẩu</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>Thảo luận về ngôn ngữ sẽ sử dụng trong project (HTML, CSS, NodeJS, SQL)</t>
+  </si>
+  <si>
+    <t>16/07/2023</t>
+  </si>
+  <si>
+    <t>18/7/2023</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm với Tiến không biết sử dụng github </t>
+  </si>
+  <si>
+    <t>Khải hỏi về thời gian rảnh để hướng dẫn Tâm và Tiến sử dụng github</t>
+  </si>
+  <si>
+    <t>Khải kêu sẽ sắp xếp lại folder sau khi Tâm và Tiến gửi bài(do cả 2 gửi bài khá lộn xộn)</t>
+  </si>
+  <si>
+    <t>Khải nói sẽ bổ sung thêm form thông báo lỗi, sửa và bổ sung phần front</t>
+  </si>
+  <si>
+    <t>Khải nói về những form mà mình đã được chỉnh sửa, bổ sung thêm</t>
+  </si>
+  <si>
+    <t>Nguyên nói sẽ hoàn thành DBO sớm nhất có thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyên &amp; Khải </t>
+  </si>
+  <si>
+    <t>Nguyên hướng dẫn liên kết FrontEnd và BackEnd</t>
+  </si>
+  <si>
+    <t>10/7/2023</t>
+  </si>
+  <si>
+    <t>19/7/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm và Tiến tham khảo về cách thiết kế của một số trang web </t>
+  </si>
+  <si>
+    <t>Nguyên góp ý với Tâm và Tiến hãy sử dụng github destop làm bài để tránh việc gửi bài lộn xộn và tốn thời gian chỉnh sửa</t>
   </si>
 </sst>
 </file>
@@ -308,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -331,14 +361,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,6 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,24 +741,25 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="6" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="108.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -706,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -721,7 +795,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -735,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -744,133 +818,139 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
+      <c r="C6" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -878,21 +958,21 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -903,18 +983,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -925,18 +1005,18 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -947,18 +1027,18 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -969,18 +1049,18 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -991,18 +1071,18 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1013,18 +1093,18 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1035,18 +1115,18 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1057,18 +1137,18 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1079,18 +1159,18 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1101,18 +1181,18 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1123,18 +1203,18 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1145,65 +1225,65 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="1">
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1217,145 +1297,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6"/>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312EC35-D7D6-449B-9472-D8C734728C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD525A-902E-4951-ADF2-6196CE336563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -301,13 +301,28 @@
   </si>
   <si>
     <t>Nguyên góp ý với Tâm và Tiến hãy sử dụng github destop làm bài để tránh việc gửi bài lộn xộn và tốn thời gian chỉnh sửa</t>
+  </si>
+  <si>
+    <t>21/7/2023</t>
+  </si>
+  <si>
+    <t>22/7/2023</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Setup Json</t>
+  </si>
+  <si>
+    <t>23/7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +340,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -423,7 +452,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B79ED3-F188-4A3F-966C-16E71EAE154B}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,13 +881,15 @@
       <c r="C5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -865,83 +897,100 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
@@ -950,43 +999,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="1">
-        <v>1</v>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -994,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1002,13 +1045,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1016,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1024,13 +1067,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1046,13 +1089,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1060,7 +1103,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1068,13 +1111,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1082,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1090,13 +1133,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="I17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1104,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1112,13 +1155,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1126,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1134,13 +1177,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="I19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1148,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1156,13 +1199,13 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1170,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1178,13 +1221,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1192,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1200,13 +1243,13 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1214,7 +1257,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1222,74 +1265,97 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="1">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1">
         <v>12</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="1">
-        <v>13</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
         <v>17</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="I10:K11"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1297,9 +1363,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="135" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="135" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1610,6 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD525A-902E-4951-ADF2-6196CE336563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B56B01-A892-4376-8C27-DAEC3C7F1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -315,7 +315,16 @@
     <t>Setup Json</t>
   </si>
   <si>
-    <t>23/7/2023</t>
+    <t>23/07/2023</t>
+  </si>
+  <si>
+    <t>Nguyên đã setup Json và chức năng đăng kí, đăng nhập</t>
+  </si>
+  <si>
+    <t>Thảo luận các chức năng</t>
+  </si>
+  <si>
+    <t>Cân nhắc loại bỏ một số chức năng nếu không đủ tiến độ</t>
   </si>
 </sst>
 </file>
@@ -359,12 +368,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -427,13 +454,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,8 +481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,23 +801,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="102.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -810,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -825,7 +855,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -848,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -871,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -892,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -913,26 +943,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -953,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -974,27 +1004,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1006,22 +1034,22 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1032,18 +1060,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -1054,18 +1082,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="I14" s="1">
         <v>2</v>
       </c>
@@ -1076,18 +1104,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="I15" s="1">
         <v>3</v>
       </c>
@@ -1098,18 +1126,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="I16" s="1">
         <v>4</v>
       </c>
@@ -1120,18 +1148,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="I17" s="1">
         <v>5</v>
       </c>
@@ -1142,18 +1170,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="I18" s="1">
         <v>6</v>
       </c>
@@ -1164,18 +1192,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="I19" s="1">
         <v>7</v>
       </c>
@@ -1186,18 +1214,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="I20" s="1">
         <v>8</v>
       </c>
@@ -1208,18 +1236,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="I21" s="1">
         <v>9</v>
       </c>
@@ -1230,18 +1258,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -1252,18 +1280,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="I23" s="1">
         <v>11</v>
       </c>
@@ -1274,18 +1302,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="I24" s="1">
         <v>12</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1307,7 +1335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1318,7 +1346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1329,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1340,7 +1368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1363,27 +1391,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1403,7 +1431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1412,7 +1440,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1421,7 +1449,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1430,7 +1458,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1439,7 +1467,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1448,13 +1476,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1463,7 +1491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1472,7 +1500,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1481,7 +1509,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1490,7 +1518,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1499,13 +1527,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1514,7 +1542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1523,7 +1551,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1532,7 +1560,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1541,7 +1569,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1550,7 +1578,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1559,7 +1587,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1568,13 +1596,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1583,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1592,7 +1620,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1601,7 +1629,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1609,6 +1637,42 @@
         <v>83</v>
       </c>
       <c r="C27" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B56B01-A892-4376-8C27-DAEC3C7F1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F82E5EE-2775-4B69-8F33-B73A145AC870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Cân nhắc loại bỏ một số chức năng nếu không đủ tiến độ</t>
+  </si>
+  <si>
+    <t>Thảo luận cách lưu dữ liệu hình ảnh vào folder và path</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -463,6 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,9 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B79ED3-F188-4A3F-966C-16E71EAE154B}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1016,11 +1020,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1034,22 +1038,22 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1061,17 +1065,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -1083,17 +1087,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="I14" s="1">
         <v>2</v>
       </c>
@@ -1105,17 +1109,17 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="I15" s="1">
         <v>3</v>
       </c>
@@ -1127,17 +1131,17 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="I16" s="1">
         <v>4</v>
       </c>
@@ -1149,17 +1153,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="I17" s="1">
         <v>5</v>
       </c>
@@ -1171,17 +1175,17 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="I18" s="1">
         <v>6</v>
       </c>
@@ -1193,17 +1197,17 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="I19" s="1">
         <v>7</v>
       </c>
@@ -1215,17 +1219,17 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="I20" s="1">
         <v>8</v>
       </c>
@@ -1237,17 +1241,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="I21" s="1">
         <v>9</v>
       </c>
@@ -1259,17 +1263,17 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="I22" s="1">
         <v>10</v>
       </c>
@@ -1281,17 +1285,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="I23" s="1">
         <v>11</v>
       </c>
@@ -1303,17 +1307,17 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="I24" s="1">
         <v>12</v>
       </c>
@@ -1391,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,10 +1409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1481,10 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1528,10 +1532,10 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1597,10 +1601,10 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1673,6 +1677,20 @@
         <v>95</v>
       </c>
       <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F82E5EE-2775-4B69-8F33-B73A145AC870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C84EC-398B-4A00-95BA-8A436AC22F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -328,6 +328,21 @@
   </si>
   <si>
     <t>Thảo luận cách lưu dữ liệu hình ảnh vào folder và path</t>
+  </si>
+  <si>
+    <t>30/07/2023</t>
+  </si>
+  <si>
+    <t>OFFLINE</t>
+  </si>
+  <si>
+    <t>Thảo luận và chỉnh sử mô hình ER</t>
+  </si>
+  <si>
+    <t>Hẹn gặp thầy để sửa chữa và update mô hình ER</t>
+  </si>
+  <si>
+    <t>Cân nhắc bỏ shipper và quy trình giao hàng</t>
   </si>
 </sst>
 </file>
@@ -397,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,11 +468,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -487,7 +522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,20 +848,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -844,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -859,7 +899,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -882,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -905,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -926,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -947,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -966,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -987,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1008,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1026,7 +1066,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1042,7 +1082,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1064,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1086,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1130,7 +1170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1152,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1174,7 +1214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1196,7 +1236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1218,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1240,7 +1280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1262,7 +1302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1284,7 +1324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1306,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1328,7 +1368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1339,7 +1379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1350,7 +1390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1361,7 +1401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1372,7 +1412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1395,27 +1435,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C34" sqref="B34:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1435,7 +1475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1444,7 +1484,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1453,7 +1493,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1462,7 +1502,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1471,7 +1511,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1480,13 +1520,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1495,7 +1535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1504,7 +1544,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1513,7 +1553,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1522,7 +1562,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1531,13 +1571,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1546,7 +1586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1555,7 +1595,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1564,7 +1604,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1573,7 +1613,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1582,7 +1622,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1591,7 +1631,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1600,13 +1640,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1615,7 +1655,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1624,7 +1664,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1633,7 +1673,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1642,7 +1682,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1651,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1660,7 +1700,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1669,7 +1709,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1678,7 +1718,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1687,17 +1727,54 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>5</v>
-      </c>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LaZaPee.xlsx
+++ b/LaZaPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaizr0/Documents/GitHub/LaTiPee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C84EC-398B-4A00-95BA-8A436AC22F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD036E0F-AC9B-6A42-A513-2770C4DC738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>Cân nhắc bỏ shipper và quy trình giao hàng</t>
+  </si>
+  <si>
+    <t>26/8/2023</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>Khải</t>
   </si>
 </sst>
 </file>
@@ -844,24 +853,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B79ED3-F188-4A3F-966C-16E71EAE154B}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -884,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -899,7 +908,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -922,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -945,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -966,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -987,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1048,25 +1057,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1082,7 +1099,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1104,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1126,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1214,7 +1231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1236,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1324,7 +1341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1346,7 +1363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1368,7 +1385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1379,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1401,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1412,7 +1429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1437,25 +1454,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BCCC1C-A68D-41E4-AC18-74116FF09CE0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C38"/>
+    <sheetView topLeftCell="A20" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1475,7 +1492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1484,7 +1501,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1493,7 +1510,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1502,7 +1519,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1511,7 +1528,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1520,13 +1537,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1535,7 +1552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1544,7 +1561,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1553,7 +1570,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1562,7 +1579,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1571,13 +1588,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1586,7 +1603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1595,7 +1612,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1604,7 +1621,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1613,7 +1630,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1622,7 +1639,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1631,7 +1648,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1640,13 +1657,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1655,7 +1672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1664,7 +1681,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1673,7 +1690,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1682,7 +1699,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1691,7 +1708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1700,7 +1717,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1709,7 +1726,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1718,7 +1735,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1727,12 +1744,12 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>97</v>
@@ -1741,7 +1758,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1750,7 +1767,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1759,7 +1776,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3</v>
       </c>
